--- a/data/trans_dic/P25_7-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_7-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente)</t>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>27,97%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,97%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,79; 21,48</t>
+          <t>14,98; 27,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 25,47</t>
+          <t>13,47; 26,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 20,64</t>
+          <t>11,82; 24,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,55; 37,23</t>
+          <t>15,39; 30,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,5; 35,73</t>
+          <t>27,78; 41,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 34,14</t>
+          <t>26,89; 40,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,56; 28,58</t>
+          <t>22,17; 35,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,77; 29,22</t>
+          <t>31,41; 45,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,1</t>
+          <t>22,96; 33,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,28; 31,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18,87; 27,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25,32; 36,49</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>28,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27,26%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,39%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 32,62</t>
+          <t>18,4; 33,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 22,39</t>
+          <t>15,7; 30,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,15</t>
+          <t>12,7; 25,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,83; 38,43</t>
+          <t>19,54; 35,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,57; 43,0</t>
+          <t>24,95; 40,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,07; 40,66</t>
+          <t>25,05; 40,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,1; 32,68</t>
+          <t>23,72; 38,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,0; 30,77</t>
+          <t>26,06; 47,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,55; 28,13</t>
+          <t>23,49; 34,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 32,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 29,93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24,35; 38,02</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>30,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31,96%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38,12%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 24,17</t>
+          <t>7,42; 44,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,43; 32,34</t>
+          <t>8,3; 45,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 53,32</t>
+          <t>18,53; 76,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,9; 55,33</t>
+          <t>15,54; 76,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,8; 48,68</t>
+          <t>22,87; 55,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,59; 43,71</t>
+          <t>24,48; 57,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,81; 36,51</t>
+          <t>15,33; 45,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,63; 36,82</t>
+          <t>19,92; 51,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,44; 43,62</t>
+          <t>18,26; 44,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,14; 46,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 56,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,55; 60,52</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,25%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,28; 23,61</t>
+          <t>18,41; 28,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 22,11</t>
+          <t>16,48; 26,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 20,66</t>
+          <t>15,83; 28,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 36,8</t>
+          <t>20,98; 34,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,86</t>
+          <t>29,11; 37,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,69; 34,95</t>
+          <t>29,1; 38,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,44; 29,06</t>
+          <t>25,16; 34,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,73</t>
+          <t>31,13; 42,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,33; 26,64</t>
+          <t>25,22; 32,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 30,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 29,22</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27,16; 36,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>89852</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70536</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65928</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>119533</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>172796</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>138963</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>117003</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>214771</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>262648</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>209499</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>182931</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>334303</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>64416; 118930</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49325; 96562</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45019; 93963</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79373; 159796</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>141362; 208935</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>113223; 170342</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>90025; 142353</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>177066; 258280</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>215620; 312654</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>175431; 249792</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>148437; 219481</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>273317; 393906</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>90460</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>70751</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59724</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>109271</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>136366</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>108263</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>102388</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>147674</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>226825</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>179014</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>162112</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>256945</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>66121; 121004</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49977; 97741</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40981; 83456</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>80564; 147170</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>106126; 171776</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>84783; 135532</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>78530; 128757</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112906; 207840</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>184377; 272345</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>141679; 214061</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>133794; 195620</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>205923; 321508</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21939</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19051</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38208</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50326</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38433</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32451</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22930</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37630</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>60372</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>51501</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61138</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87956</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7255; 43423</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6607; 36118</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15862; 65843</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18559; 91291</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22598; 54452</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19963; 46556</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12657; 37944</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22177; 57102</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35891; 88279</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32451; 74472</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35905; 95216</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54342; 139642</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>202251</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>160338</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>163859</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>279130</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>347595</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>279676</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>242321</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>400075</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>549846</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>440014</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>406180</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>679205</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>163361; 250232</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>125917; 199704</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>124905; 222453</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>219780; 364494</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>300707; 391153</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>244715; 324302</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>206176; 282944</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>344982; 473003</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>484340; 622434</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>386816; 496032</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>351954; 470035</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>585446; 778416</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
